--- a/Template/HTS.xlsx
+++ b/Template/HTS.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\LiveHTS\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab Raw" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Profile" sheetId="9" r:id="rId5"/>
+    <sheet name="HTS" sheetId="6" r:id="rId6"/>
+    <sheet name="HTS Testing" sheetId="7" r:id="rId7"/>
+    <sheet name="HTS Linkage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1235">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -5441,7 +5445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5451,6 +5455,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5528,7 +5556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5576,16 +5604,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5595,6 +5617,198 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5912,7 +6126,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,320 +6577,320 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="18" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="22"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="22"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="22"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="22"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -6960,13 +7174,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="A51:A66"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6976,17 +7190,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F501"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="A99:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="6" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,7 +7453,7 @@
       <c r="A17" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>749</v>
       </c>
       <c r="E17" t="s">
@@ -7279,23 +7493,23 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7523,7 +7737,7 @@
       <c r="A39" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>771</v>
       </c>
       <c r="C39" t="s">
@@ -7594,16 +7808,16 @@
       <c r="B43" t="s">
         <v>775</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7614,12 +7828,12 @@
       <c r="B44" t="s">
         <v>776</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7628,12 +7842,12 @@
       <c r="B45" t="s">
         <v>777</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7642,12 +7856,12 @@
       <c r="B46" t="s">
         <v>778</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7656,12 +7870,12 @@
       <c r="B47" t="s">
         <v>779</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7670,12 +7884,12 @@
       <c r="B48" t="s">
         <v>780</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -7684,12 +7898,12 @@
       <c r="B49" t="s">
         <v>781</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -7698,12 +7912,12 @@
       <c r="B50" t="s">
         <v>782</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" t="s">
         <v>175</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -7712,10 +7926,10 @@
       <c r="B51" t="s">
         <v>783</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E51" t="s">
@@ -7732,8 +7946,8 @@
       <c r="B52" t="s">
         <v>784</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" t="s">
         <v>3</v>
       </c>
@@ -7748,8 +7962,8 @@
       <c r="B53" t="s">
         <v>785</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
       <c r="E53" t="s">
         <v>177</v>
       </c>
@@ -7764,8 +7978,8 @@
       <c r="B54" t="s">
         <v>786</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
       <c r="E54" t="s">
         <v>3</v>
       </c>
@@ -7780,8 +7994,8 @@
       <c r="B55" t="s">
         <v>787</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
       <c r="E55" t="s">
         <v>178</v>
       </c>
@@ -7796,8 +8010,8 @@
       <c r="B56" t="s">
         <v>788</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
       <c r="F56" t="s">
         <v>3</v>
       </c>
@@ -7809,8 +8023,8 @@
       <c r="B57" t="s">
         <v>789</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="F57" t="s">
         <v>3</v>
       </c>
@@ -7822,8 +8036,8 @@
       <c r="B58" t="s">
         <v>790</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="F58" t="s">
         <v>3</v>
       </c>
@@ -7835,8 +8049,8 @@
       <c r="B59" t="s">
         <v>791</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
       <c r="F59" t="s">
         <v>179</v>
       </c>
@@ -7848,8 +8062,8 @@
       <c r="B60" t="s">
         <v>792</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" t="s">
         <v>94</v>
       </c>
@@ -7861,8 +8075,8 @@
       <c r="B61" t="s">
         <v>793</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
       <c r="E61" t="s">
         <v>3</v>
       </c>
@@ -7874,8 +8088,8 @@
       <c r="B62" t="s">
         <v>794</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" t="s">
         <v>180</v>
       </c>
@@ -7887,8 +8101,8 @@
       <c r="B63" t="s">
         <v>795</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
       <c r="E63" t="s">
         <v>181</v>
       </c>
@@ -7900,8 +8114,8 @@
       <c r="B64" t="s">
         <v>796</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
       <c r="E64" t="s">
         <v>182</v>
       </c>
@@ -7913,8 +8127,8 @@
       <c r="B65" t="s">
         <v>797</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" t="s">
         <v>3</v>
       </c>
@@ -7926,8 +8140,8 @@
       <c r="B66" t="s">
         <v>798</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" t="s">
         <v>98</v>
       </c>
@@ -7939,10 +8153,10 @@
       <c r="B67" t="s">
         <v>799</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="28" t="s">
         <v>100</v>
       </c>
       <c r="E67" t="s">
@@ -7959,8 +8173,8 @@
       <c r="B68" t="s">
         <v>800</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
       <c r="E68" t="s">
         <v>3</v>
       </c>
@@ -7975,8 +8189,8 @@
       <c r="B69" t="s">
         <v>801</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
       <c r="E69" t="s">
         <v>177</v>
       </c>
@@ -7988,8 +8202,8 @@
       <c r="B70" t="s">
         <v>802</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
       <c r="E70" t="s">
         <v>3</v>
       </c>
@@ -8001,8 +8215,8 @@
       <c r="B71" t="s">
         <v>803</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="E71" t="s">
         <v>178</v>
       </c>
@@ -8014,8 +8228,8 @@
       <c r="B72" t="s">
         <v>804</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
       <c r="E72" t="s">
         <v>94</v>
       </c>
@@ -8027,8 +8241,8 @@
       <c r="B73" t="s">
         <v>805</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
       <c r="E73" t="s">
         <v>3</v>
       </c>
@@ -8040,8 +8254,8 @@
       <c r="B74" t="s">
         <v>806</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
       <c r="E74" t="s">
         <v>180</v>
       </c>
@@ -8053,8 +8267,8 @@
       <c r="B75" t="s">
         <v>807</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
       <c r="E75" t="s">
         <v>181</v>
       </c>
@@ -8066,8 +8280,8 @@
       <c r="B76" t="s">
         <v>808</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
       <c r="E76" t="s">
         <v>182</v>
       </c>
@@ -8079,8 +8293,8 @@
       <c r="B77" t="s">
         <v>809</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
       <c r="E77" t="s">
         <v>184</v>
       </c>
@@ -8092,8 +8306,8 @@
       <c r="B78" t="s">
         <v>810</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
       <c r="E78" t="s">
         <v>98</v>
       </c>
@@ -8510,7 +8724,7 @@
       <c r="A109" t="s">
         <v>303</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="21" t="s">
         <v>841</v>
       </c>
     </row>
@@ -11278,7 +11492,7 @@
       <c r="A455" t="s">
         <v>649</v>
       </c>
-      <c r="B455" s="23" t="s">
+      <c r="B455" s="21" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -11286,7 +11500,7 @@
       <c r="A456" t="s">
         <v>650</v>
       </c>
-      <c r="B456" s="23" t="s">
+      <c r="B456" s="21" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -11342,7 +11556,7 @@
       <c r="A463" t="s">
         <v>657</v>
       </c>
-      <c r="B463" s="23" t="s">
+      <c r="B463" s="21" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -11382,7 +11596,7 @@
       <c r="A468" t="s">
         <v>662</v>
       </c>
-      <c r="B468" s="23" t="s">
+      <c r="B468" s="21" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -11438,7 +11652,7 @@
       <c r="A475" t="s">
         <v>669</v>
       </c>
-      <c r="B475" s="23" t="s">
+      <c r="B475" s="21" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -11454,7 +11668,7 @@
       <c r="A477" t="s">
         <v>671</v>
       </c>
-      <c r="B477" s="23" t="s">
+      <c r="B477" s="21" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -11462,7 +11676,7 @@
       <c r="A478" t="s">
         <v>672</v>
       </c>
-      <c r="B478" s="23" t="s">
+      <c r="B478" s="21" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -11494,7 +11708,7 @@
       <c r="A482" t="s">
         <v>676</v>
       </c>
-      <c r="B482" s="23" t="s">
+      <c r="B482" s="21" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -11502,7 +11716,7 @@
       <c r="A483" t="s">
         <v>677</v>
       </c>
-      <c r="B483" s="23" t="s">
+      <c r="B483" s="21" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -11518,7 +11732,7 @@
       <c r="A485" t="s">
         <v>679</v>
       </c>
-      <c r="B485" s="23" t="s">
+      <c r="B485" s="21" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -11550,7 +11764,7 @@
       <c r="A489" t="s">
         <v>683</v>
       </c>
-      <c r="B489" s="23" t="s">
+      <c r="B489" s="21" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -11606,7 +11820,7 @@
       <c r="A496" t="s">
         <v>690</v>
       </c>
-      <c r="B496" s="23" t="s">
+      <c r="B496" s="21" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -11622,7 +11836,7 @@
       <c r="A498" t="s">
         <v>692</v>
       </c>
-      <c r="B498" s="23" t="s">
+      <c r="B498" s="21" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -11630,7 +11844,7 @@
       <c r="A499" t="s">
         <v>693</v>
       </c>
-      <c r="B499" s="23" t="s">
+      <c r="B499" s="21" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -11652,13 +11866,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="D67:D78"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="F43:F50"/>
     <mergeCell ref="C51:C66"/>
     <mergeCell ref="D51:D66"/>
-    <mergeCell ref="C67:C78"/>
-    <mergeCell ref="D67:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11668,7 +11882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -11818,7 +12032,7 @@
       <c r="A10" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>749</v>
       </c>
       <c r="F10" t="s">
@@ -12115,7 +12329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
@@ -12292,4 +12506,3457 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="84"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="84"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="84"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="84"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="84"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="84"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="84"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="84"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="50"/>
+    </row>
+    <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="50"/>
+    </row>
+    <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="53"/>
+    </row>
+    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="43"/>
+    </row>
+    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A82" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="50"/>
+    </row>
+    <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="50"/>
+    </row>
+    <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="53"/>
+    </row>
+    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="71"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="71"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="71"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="71"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="71"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="71"/>
+    </row>
+    <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="71"/>
+    </row>
+    <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A67" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="71"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="71"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="71"/>
+    </row>
+    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="71"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="71"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="71"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="71"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="71"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="71"/>
+    </row>
+    <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="71"/>
+    </row>
+    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="69"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="69"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="70"/>
+    </row>
+    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="69"/>
+    </row>
+    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="70"/>
+    </row>
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="69"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="69"/>
+    </row>
+    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="70"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="43"/>
+    </row>
+    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="50"/>
+    </row>
+    <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="50"/>
+    </row>
+    <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="53"/>
+    </row>
+    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="71"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="71"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="71"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="71"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="71"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="71"/>
+    </row>
+    <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="71"/>
+    </row>
+    <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A67" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="71"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="71"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="71"/>
+    </row>
+    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="71"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="71"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="71"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="71"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="71"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="71"/>
+    </row>
+    <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="71"/>
+    </row>
+    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="69"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="69"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="70"/>
+    </row>
+    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="69"/>
+    </row>
+    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="70"/>
+    </row>
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="69"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="69"/>
+    </row>
+    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="70"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" s="58"/>
+      <c r="C100" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="59"/>
+    </row>
+    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="43"/>
+    </row>
+    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Template/HTS.xlsx
+++ b/Template/HTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HTS Lab Raw" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1235">
   <si>
     <t>Ever Tested?</t>
   </si>
@@ -5556,7 +5556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5617,25 +5617,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5688,28 +5669,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5736,19 +5699,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5764,12 +5715,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5808,6 +5753,88 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6125,7 +6152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6577,80 +6604,80 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="72" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="70"/>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="D46" s="70"/>
     </row>
     <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="70"/>
     </row>
     <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="70"/>
     </row>
     <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="70"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="24"/>
+      <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="72" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -6661,8 +6688,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
@@ -6671,8 +6698,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="4" t="s">
         <v>91</v>
       </c>
@@ -6681,8 +6708,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
@@ -6691,8 +6718,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="4" t="s">
         <v>92</v>
       </c>
@@ -6701,98 +6728,98 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="3"/>
       <c r="D56" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="3"/>
       <c r="D57" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="3"/>
       <c r="D58" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="6"/>
       <c r="D59" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="72" t="s">
         <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -6803,8 +6830,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
@@ -6813,80 +6840,80 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="73"/>
       <c r="C69" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="73"/>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="73"/>
       <c r="C71" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="73"/>
       <c r="C72" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="8" t="s">
         <v>98</v>
       </c>
@@ -7493,23 +7520,23 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7808,16 +7835,16 @@
       <c r="B43" t="s">
         <v>775</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="75" t="s">
         <v>78</v>
       </c>
       <c r="E43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="75" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7828,12 +7855,12 @@
       <c r="B44" t="s">
         <v>776</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
       <c r="E44" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="75"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7842,12 +7869,12 @@
       <c r="B45" t="s">
         <v>777</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
       <c r="E45" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="75"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7856,12 +7883,12 @@
       <c r="B46" t="s">
         <v>778</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
       <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="75"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7870,12 +7897,12 @@
       <c r="B47" t="s">
         <v>779</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
       <c r="E47" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="28"/>
+      <c r="F47" s="75"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7884,12 +7911,12 @@
       <c r="B48" t="s">
         <v>780</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
       <c r="E48" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="28"/>
+      <c r="F48" s="75"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -7898,12 +7925,12 @@
       <c r="B49" t="s">
         <v>781</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
       <c r="E49" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="28"/>
+      <c r="F49" s="75"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -7912,12 +7939,12 @@
       <c r="B50" t="s">
         <v>782</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
       <c r="E50" t="s">
         <v>175</v>
       </c>
-      <c r="F50" s="28"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -7926,10 +7953,10 @@
       <c r="B51" t="s">
         <v>783</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="75" t="s">
         <v>88</v>
       </c>
       <c r="E51" t="s">
@@ -7946,8 +7973,8 @@
       <c r="B52" t="s">
         <v>784</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
       <c r="E52" t="s">
         <v>3</v>
       </c>
@@ -7962,8 +7989,8 @@
       <c r="B53" t="s">
         <v>785</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
       <c r="E53" t="s">
         <v>177</v>
       </c>
@@ -7978,8 +8005,8 @@
       <c r="B54" t="s">
         <v>786</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
       <c r="E54" t="s">
         <v>3</v>
       </c>
@@ -7994,8 +8021,8 @@
       <c r="B55" t="s">
         <v>787</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
       <c r="E55" t="s">
         <v>178</v>
       </c>
@@ -8010,8 +8037,8 @@
       <c r="B56" t="s">
         <v>788</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
       <c r="F56" t="s">
         <v>3</v>
       </c>
@@ -8023,8 +8050,8 @@
       <c r="B57" t="s">
         <v>789</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
       <c r="F57" t="s">
         <v>3</v>
       </c>
@@ -8036,8 +8063,8 @@
       <c r="B58" t="s">
         <v>790</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
       <c r="F58" t="s">
         <v>3</v>
       </c>
@@ -8049,8 +8076,8 @@
       <c r="B59" t="s">
         <v>791</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
       <c r="F59" t="s">
         <v>179</v>
       </c>
@@ -8062,8 +8089,8 @@
       <c r="B60" t="s">
         <v>792</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
       <c r="E60" t="s">
         <v>94</v>
       </c>
@@ -8075,8 +8102,8 @@
       <c r="B61" t="s">
         <v>793</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
       <c r="E61" t="s">
         <v>3</v>
       </c>
@@ -8088,8 +8115,8 @@
       <c r="B62" t="s">
         <v>794</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
       <c r="E62" t="s">
         <v>180</v>
       </c>
@@ -8101,8 +8128,8 @@
       <c r="B63" t="s">
         <v>795</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
       <c r="E63" t="s">
         <v>181</v>
       </c>
@@ -8114,8 +8141,8 @@
       <c r="B64" t="s">
         <v>796</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
       <c r="E64" t="s">
         <v>182</v>
       </c>
@@ -8127,8 +8154,8 @@
       <c r="B65" t="s">
         <v>797</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
       <c r="E65" t="s">
         <v>3</v>
       </c>
@@ -8140,8 +8167,8 @@
       <c r="B66" t="s">
         <v>798</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
       <c r="E66" t="s">
         <v>98</v>
       </c>
@@ -8153,10 +8180,10 @@
       <c r="B67" t="s">
         <v>799</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="75" t="s">
         <v>100</v>
       </c>
       <c r="E67" t="s">
@@ -8173,8 +8200,8 @@
       <c r="B68" t="s">
         <v>800</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
       <c r="E68" t="s">
         <v>3</v>
       </c>
@@ -8189,8 +8216,8 @@
       <c r="B69" t="s">
         <v>801</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
       <c r="E69" t="s">
         <v>177</v>
       </c>
@@ -8202,8 +8229,8 @@
       <c r="B70" t="s">
         <v>802</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
       <c r="E70" t="s">
         <v>3</v>
       </c>
@@ -8215,8 +8242,8 @@
       <c r="B71" t="s">
         <v>803</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
       <c r="E71" t="s">
         <v>178</v>
       </c>
@@ -8228,8 +8255,8 @@
       <c r="B72" t="s">
         <v>804</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
       <c r="E72" t="s">
         <v>94</v>
       </c>
@@ -8241,8 +8268,8 @@
       <c r="B73" t="s">
         <v>805</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
       <c r="E73" t="s">
         <v>3</v>
       </c>
@@ -8254,8 +8281,8 @@
       <c r="B74" t="s">
         <v>806</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
       <c r="E74" t="s">
         <v>180</v>
       </c>
@@ -8267,8 +8294,8 @@
       <c r="B75" t="s">
         <v>807</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
       <c r="E75" t="s">
         <v>181</v>
       </c>
@@ -8280,8 +8307,8 @@
       <c r="B76" t="s">
         <v>808</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
       <c r="E76" t="s">
         <v>182</v>
       </c>
@@ -8293,8 +8320,8 @@
       <c r="B77" t="s">
         <v>809</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
       <c r="E77" t="s">
         <v>184</v>
       </c>
@@ -8306,8 +8333,8 @@
       <c r="B78" t="s">
         <v>810</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
       <c r="E78" t="s">
         <v>98</v>
       </c>
@@ -12512,249 +12539,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="36.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="79"/>
+    <col min="1" max="1" width="36.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="63" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12765,10 +12792,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12793,1037 +12820,422 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="34"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="89"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="34"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="34"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="36"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="34"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="34"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="40"/>
-    </row>
-    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="A23" s="89"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="40"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="40"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="40"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="43"/>
-    </row>
-    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>66</v>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="38" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>73</v>
+      <c r="D39" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>75</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="50"/>
-    </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="50"/>
-    </row>
-    <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="50"/>
-    </row>
-    <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="50"/>
-    </row>
-    <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="50"/>
-    </row>
-    <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="50"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="53"/>
-    </row>
-    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="20"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="20"/>
-    </row>
-    <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="20"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="20"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C93" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="40"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" s="40"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="40"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="40"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D98" s="43"/>
-    </row>
-    <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B44" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C44" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D102" s="38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="40"/>
-    </row>
-    <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="45" t="s">
+      <c r="D44" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="43"/>
-    </row>
-    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="49" t="s">
-        <v>3</v>
-      </c>
+      <c r="D46" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
+  <mergeCells count="4">
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13833,7 +13245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A82" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13860,934 +13272,934 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="42" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="42" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="41" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="77"/>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="77"/>
     </row>
     <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="77"/>
     </row>
     <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="77"/>
     </row>
     <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="77"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="78"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="53"/>
+      <c r="D50" s="78"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="65" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="65" t="s">
+      <c r="A54" s="83"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="65" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="65" t="s">
+      <c r="A57" s="83"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="65" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="65" t="s">
+      <c r="A59" s="83"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="64" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="71"/>
+      <c r="D60" s="54"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="71"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="54"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="72" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="71"/>
+      <c r="D62" s="54"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="66"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="72" t="s">
+      <c r="A63" s="83"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="71"/>
+      <c r="D63" s="54"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="72" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="54"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="71"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="54"/>
     </row>
     <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="71"/>
+      <c r="D66" s="54"/>
     </row>
     <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="65" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="68" t="s">
+      <c r="A69" s="83"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="71"/>
+      <c r="D69" s="54"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="71"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="54"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="75" t="s">
+      <c r="A71" s="83"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="71"/>
+      <c r="D71" s="54"/>
     </row>
     <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="64" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="71"/>
+      <c r="D72" s="54"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="71"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="54"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="72" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="71"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="72" t="s">
+      <c r="A75" s="83"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="71"/>
+      <c r="D75" s="54"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="72" t="s">
+      <c r="A76" s="83"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="71"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="72" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="71"/>
+      <c r="D77" s="54"/>
     </row>
     <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="75" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="71"/>
+      <c r="D78" s="54"/>
     </row>
     <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="69"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="72" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="69"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="72" t="s">
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="69"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="77" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="70"/>
+      <c r="D83" s="53"/>
     </row>
     <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="49" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="68" t="s">
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="72" t="s">
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="69"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="77" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="70"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="68" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="72" t="s">
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="69"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="72" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="69"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="77" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="70"/>
+      <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="40"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="33"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="40"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="40"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="42" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="40"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="43"/>
+      <c r="D98" s="36"/>
     </row>
     <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
@@ -14824,72 +14236,72 @@
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="40"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="45" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="43"/>
-    </row>
-    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="D104" s="36"/>
+    </row>
+    <row r="105" spans="1:4" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="40" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="A51:A66"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14899,7 +14311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A99" sqref="A99:D101"/>
     </sheetView>
   </sheetViews>
@@ -14926,1036 +14338,1036 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="42" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="42" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="41" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="77"/>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="77"/>
     </row>
     <row r="47" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="50"/>
+      <c r="D47" s="77"/>
     </row>
     <row r="48" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="50"/>
+      <c r="D48" s="77"/>
     </row>
     <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="77"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="78"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="53"/>
+      <c r="D50" s="78"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="65" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="65" t="s">
+      <c r="A54" s="83"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="65" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="65" t="s">
+      <c r="A57" s="83"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="65" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="65" t="s">
+      <c r="A59" s="83"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="64" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="71"/>
+      <c r="D60" s="54"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="71"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="54"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="72" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="71"/>
+      <c r="D62" s="54"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="66"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="72" t="s">
+      <c r="A63" s="83"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="71"/>
+      <c r="D63" s="54"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="66"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="72" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="54"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="71"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="54"/>
     </row>
     <row r="66" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="71"/>
+      <c r="D66" s="54"/>
     </row>
     <row r="67" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="65" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="68" t="s">
+      <c r="A69" s="83"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="71"/>
+      <c r="D69" s="54"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="71"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="54"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="75" t="s">
+      <c r="A71" s="83"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="71"/>
+      <c r="D71" s="54"/>
     </row>
     <row r="72" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="66"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="64" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="71"/>
+      <c r="D72" s="54"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="71"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="54"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="72" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="71"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="72" t="s">
+      <c r="A75" s="83"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="71"/>
+      <c r="D75" s="54"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="72" t="s">
+      <c r="A76" s="83"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="71"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="72" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="71"/>
+      <c r="D77" s="54"/>
     </row>
     <row r="78" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="75" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="71"/>
+      <c r="D78" s="54"/>
     </row>
     <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="69"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="52"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="72" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="69"/>
+      <c r="D81" s="52"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="72" t="s">
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="69"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="77" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="70"/>
+      <c r="D83" s="53"/>
     </row>
     <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="49" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="68" t="s">
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="72" t="s">
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="69"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="77" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="70"/>
+      <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="68" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="72" t="s">
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="69"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="72" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="69"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="77" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="70"/>
+      <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="40"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="33"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="42" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="40"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="42" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="40"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="42" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="40"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="43"/>
+      <c r="D98" s="36"/>
     </row>
     <row r="99" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="56" t="s">
+      <c r="D99" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B100" s="58"/>
-      <c r="C100" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="57" t="s">
+      <c r="B100" s="45"/>
+      <c r="C100" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="60" t="s">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="59"/>
+      <c r="D101" s="46"/>
     </row>
     <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="40"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="45" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="43"/>
-    </row>
-    <row r="105" spans="1:4" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="D104" s="36"/>
+    </row>
+    <row r="105" spans="1:4" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="40" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="A51:A66"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
